--- a/焦炭/eta/焦炭现货基差_月度数据.xlsx
+++ b/焦炭/eta/焦炭现货基差_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-187.3</v>
+        <v>-149.2</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-138.1</v>
+        <v>-138.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-126.1</v>
+        <v>-109.4</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>-124</v>
       </c>
       <c r="C4" t="n">
-        <v>-110</v>
+        <v>-104.4</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
         <v>-164.3</v>
       </c>
       <c r="C10" t="n">
-        <v>-164.4</v>
+        <v>-164.3</v>
       </c>
     </row>
     <row r="11">
@@ -705,7 +705,7 @@
         <v>-150.9</v>
       </c>
       <c r="C21" t="n">
-        <v>-150.8</v>
+        <v>-150.9</v>
       </c>
     </row>
     <row r="22">
@@ -731,7 +731,7 @@
         <v>-4.8</v>
       </c>
       <c r="C23" t="n">
-        <v>-4.8</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="24">
